--- a/Logistic.xlsx
+++ b/Logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562FF0E1-37F6-43A0-98CB-7539695CDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96186160-FF82-4362-B76A-70DAE853F0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{0F63B44F-CCC1-4F0C-BEBB-F954886206C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0F63B44F-CCC1-4F0C-BEBB-F954886206C0}"/>
   </bookViews>
   <sheets>
     <sheet name="BARBIERI" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="IBEMA EMF" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BARBIERI!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BARBIERI!$A$1:$G$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'IBEMA ARA'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'IBEMA EMF'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PERFIPAR!$A$1:$G$1</definedName>
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21EABDC-E12E-48F6-AFBD-6D93C8815834}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2032,7 @@
       <c r="E1" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>515</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -2789,8 +2789,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ikkjeb1JjyWm8DFx55lEnAhNCa+Nw/A4Al3U4uT1IzIMq4P9cjonrbNoAvczN2ef3sbb07LntI2SDE8BpjIz8w==" saltValue="R6fTji+f1OAXWawhmPamFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G1" xr:uid="{D21EABDC-E12E-48F6-AFBD-6D93C8815834}">
+  <autoFilter ref="A1:G53" xr:uid="{D21EABDC-E12E-48F6-AFBD-6D93C8815834}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G53">
       <sortCondition ref="A1"/>
     </sortState>
@@ -13081,7 +13080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97F7A4-B861-42AA-88CB-B83BB80F1434}">
   <dimension ref="A1:G358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>

--- a/Logistic.xlsx
+++ b/Logistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96186160-FF82-4362-B76A-70DAE853F0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A515E3-42E1-4488-AAC4-D228B614034E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0F63B44F-CCC1-4F0C-BEBB-F954886206C0}"/>
   </bookViews>
@@ -2003,16 +2003,14 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1048576"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="15.7109375" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2023,13 +2021,13 @@
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>517</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2789,6 +2787,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="o/soIbvX/S5MxNyjiHs934B+Ne8Vr02y2kCzbbDLP51zRcY0aKJ8EHf53cUtl+QGgMmuUsEuV5xb3FNxWQxLSw==" saltValue="Yxd4t2iMR3TCTZjXzn2Irg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:G53" xr:uid="{D21EABDC-E12E-48F6-AFBD-6D93C8815834}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G53">
       <sortCondition ref="A1"/>
